--- a/CollectionSoftware3/KAMATCHI STORE (MMDA).xlsx
+++ b/CollectionSoftware3/KAMATCHI STORE (MMDA).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,22 +431,6 @@
         <v>20671</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CollectionSoftware3/KAMATCHI STORE (MMDA).xlsx
+++ b/CollectionSoftware3/KAMATCHI STORE (MMDA).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,22 +431,6 @@
         <v>8671</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
